--- a/Project_Gantt.xlsx
+++ b/Project_Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{6D888731-53CD-42FD-B051-EB4DE6C7C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA04F36-D941-4B0F-B62E-737578F7067F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="7155" windowWidth="28800" windowHeight="15435" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="12" r:id="rId1"/>
@@ -1263,6 +1263,16 @@
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1270,9 +1280,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1285,6 +1292,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1308,16 +1318,6 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -1335,513 +1335,34 @@
   </cellStyles>
   <dxfs count="71">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2112,36 +1633,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2153,6 +1644,264 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2255,6 +2004,257 @@
           <bgColor theme="1" tint="0.249977111117893"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -2618,9 +2618,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>64</xdr:col>
-          <xdr:colOff>3464</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:colOff>9524</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2771,7 +2771,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G43" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B9:G43" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2781,12 +2781,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="0" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="51" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="37" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="36" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2798,7 +2798,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2808,9 +2808,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2835,9 +2835,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -3134,11 +3134,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="131"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3166,11 +3166,11 @@
     <row r="4" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="126"/>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="126"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3183,11 +3183,11 @@
     <row r="5" spans="1:13" s="8" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="126"/>
-      <c r="C5" s="143" t="s">
+      <c r="C5" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="126"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3289,8 +3289,8 @@
   </sheetPr>
   <dimension ref="A1:BP45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BW11" sqref="BW11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="CD12" sqref="CD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3300,7 @@
     <col min="3" max="3" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="12" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" style="12" customWidth="1"/>
     <col min="9" max="31" width="3.5703125" style="12" customWidth="1"/>
@@ -3313,27 +3313,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
       <c r="W2" s="76"/>
@@ -3460,41 +3460,41 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="148" t="s">
+      <c r="N4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="149" t="s">
+      <c r="S4" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="159" t="s">
+      <c r="AC4" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="160"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="145"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
       <c r="AJ4" s="99"/>
@@ -4563,8 +4563,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="69">
-        <f ca="1">TODAY()</f>
-        <v>44503</v>
+        <v>44454</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -5055,8 +5054,8 @@
         <v>0</v>
       </c>
       <c r="F14" s="69">
-        <f ca="1">F12-3</f>
-        <v>44500</v>
+        <f>F12-3</f>
+        <v>44451</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -5301,8 +5300,8 @@
         <v>0</v>
       </c>
       <c r="F15" s="69">
-        <f ca="1">F12+20</f>
-        <v>44523</v>
+        <f>F12+20</f>
+        <v>44474</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -5547,8 +5546,8 @@
         <v>0</v>
       </c>
       <c r="F16" s="69">
-        <f ca="1">F12+6</f>
-        <v>44509</v>
+        <f>F12+6</f>
+        <v>44460</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -5793,8 +5792,8 @@
         <v>0</v>
       </c>
       <c r="F17" s="69">
-        <f ca="1">F16+2</f>
-        <v>44511</v>
+        <f>F16+2</f>
+        <v>44462</v>
       </c>
       <c r="G17" s="70">
         <v>2</v>
@@ -6108,8 +6107,8 @@
         <v>0</v>
       </c>
       <c r="F19" s="69">
-        <f ca="1">F12+6</f>
-        <v>44509</v>
+        <f>F12+6</f>
+        <v>44460</v>
       </c>
       <c r="G19" s="70">
         <v>13</v>
@@ -6354,8 +6353,8 @@
         <v>0</v>
       </c>
       <c r="F20" s="69">
-        <f ca="1">F19+2</f>
-        <v>44511</v>
+        <f>F19+2</f>
+        <v>44462</v>
       </c>
       <c r="G20" s="70">
         <v>9</v>
@@ -6600,8 +6599,8 @@
         <v>0</v>
       </c>
       <c r="F21" s="69">
-        <f ca="1">F20+2</f>
-        <v>44513</v>
+        <f>F20+2</f>
+        <v>44464</v>
       </c>
       <c r="G21" s="70">
         <v>11</v>
@@ -6846,8 +6845,8 @@
         <v>0</v>
       </c>
       <c r="F22" s="69">
-        <f ca="1">F21+2</f>
-        <v>44515</v>
+        <f>F21+2</f>
+        <v>44466</v>
       </c>
       <c r="G22" s="70">
         <v>1</v>
@@ -7092,235 +7091,235 @@
         <v>0</v>
       </c>
       <c r="F23" s="69">
-        <f ca="1">F22+1</f>
-        <v>44516</v>
+        <f>F22+1</f>
+        <v>44467</v>
       </c>
       <c r="G23" s="70">
         <v>24</v>
       </c>
       <c r="H23" s="103"/>
       <c r="I23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ref="I23:AN23" ca="1" si="9">IF(AND($C23="Goal",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",J$7&gt;=$F23,J$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",K$7&gt;=$F23,K$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",L$7&gt;=$F23,L$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",M$7&gt;=$F23,M$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",N$7&gt;=$F23,N$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",O$7&gt;=$F23,O$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",P$7&gt;=$F23,P$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Q23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Q$7&gt;=$F23,Q$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="R23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",R$7&gt;=$F23,R$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",S$7&gt;=$F23,S$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",T$7&gt;=$F23,T$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="U23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",U$7&gt;=$F23,U$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="V23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",V$7&gt;=$F23,V$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="W23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",W$7&gt;=$F23,W$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="X23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",X$7&gt;=$F23,X$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Y23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Y$7&gt;=$F23,Y$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Z23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Z$7&gt;=$F23,Z$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AA23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AA$7&gt;=$F23,AA$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AB23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AB$7&gt;=$F23,AB$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AC23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AC$7&gt;=$F23,AC$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AD23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AD$7&gt;=$F23,AD$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AE23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AE$7&gt;=$F23,AE$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AF23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AF$7&gt;=$F23,AF$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AG23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AG$7&gt;=$F23,AG$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AH23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AH$7&gt;=$F23,AH$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AI23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AI$7&gt;=$F23,AI$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AJ23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AJ$7&gt;=$F23,AJ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AK23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AK$7&gt;=$F23,AK$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AL23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AL$7&gt;=$F23,AL$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AM23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AM$7&gt;=$F23,AM$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AN$7&gt;=$F23,AN$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ref="AO23:BL23" ca="1" si="10">IF(AND($C23="Goal",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$7&gt;=$F23,AO$7&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AP23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AP$7&gt;=$F23,AP$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AQ23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AQ$7&gt;=$F23,AQ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AR23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AR$7&gt;=$F23,AR$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AS23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AS$7&gt;=$F23,AS$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AT23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AT$7&gt;=$F23,AT$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AU23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AU$7&gt;=$F23,AU$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AV23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AV$7&gt;=$F23,AV$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AW23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AW$7&gt;=$F23,AW$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AX$7&gt;=$F23,AX$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AY$7&gt;=$F23,AY$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AZ$7&gt;=$F23,AZ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BA$7&gt;=$F23,BA$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BB$7&gt;=$F23,BB$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BC$7&gt;=$F23,BC$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$7&gt;=$F23,BD$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BE$7&gt;=$F23,BE$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BF$7&gt;=$F23,BF$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BG$7&gt;=$F23,BG$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BH23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BH$7&gt;=$F23,BH$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BI23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BI$7&gt;=$F23,BI$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BJ23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BJ$7&gt;=$F23,BJ$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BK23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BK$7&gt;=$F23,BK$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BL23" s="29" t="str">
-        <f ca="1">IF(AND($C23="Goal",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BL$7&gt;=$F23,BL$7&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BM23" s="21"/>
@@ -7338,8 +7337,8 @@
         <v>0</v>
       </c>
       <c r="F24" s="69">
-        <f ca="1">F23+24</f>
-        <v>44540</v>
+        <f>F23+24</f>
+        <v>44491</v>
       </c>
       <c r="G24" s="70">
         <v>3</v>
@@ -7415,227 +7414,227 @@
       <c r="G25" s="70"/>
       <c r="H25" s="103"/>
       <c r="I25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="I25:R30" ca="1" si="11">IF(AND($C25="Goal",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="J25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$7&gt;=$F25,J$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$7&gt;=$F25,K$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$7&gt;=$F25,L$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$7&gt;=$F25,M$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$7&gt;=$F25,N$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$7&gt;=$F25,O$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$7&gt;=$F25,P$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$7&gt;=$F25,Q$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="S25:AB30" ca="1" si="12">IF(AND($C25="Goal",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$7&gt;=$F25,S$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="T25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$7&gt;=$F25,T$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$7&gt;=$F25,U$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$7&gt;=$F25,V$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$7&gt;=$F25,W$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$7&gt;=$F25,X$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$7&gt;=$F25,Y$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$7&gt;=$F25,Z$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$7&gt;=$F25,AA$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$7&gt;=$F25,AB$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="AC25:AL30" ca="1" si="13">IF(AND($C25="Goal",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$7&gt;=$F25,AC$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AD25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$7&gt;=$F25,AD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$7&gt;=$F25,AE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$7&gt;=$F25,AF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$7&gt;=$F25,AG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$7&gt;=$F25,AH$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$7&gt;=$F25,AI$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$7&gt;=$F25,AJ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$7&gt;=$F25,AK$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$7&gt;=$F25,AL$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="AM25:AV30" ca="1" si="14">IF(AND($C25="Goal",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$7&gt;=$F25,AM$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AN25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$7&gt;=$F25,AN$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$7&gt;=$F25,AO$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$7&gt;=$F25,AP$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$7&gt;=$F25,AQ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$7&gt;=$F25,AR$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$7&gt;=$F25,AS$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$7&gt;=$F25,AT$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$7&gt;=$F25,AU$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$7&gt;=$F25,AV$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="AW25:BF30" ca="1" si="15">IF(AND($C25="Goal",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$7&gt;=$F25,AW$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AX25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$7&gt;=$F25,AX$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$7&gt;=$F25,AY$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$7&gt;=$F25,AZ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$7&gt;=$F25,BA$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$7&gt;=$F25,BB$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$7&gt;=$F25,BC$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$7&gt;=$F25,BD$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$7&gt;=$F25,BE$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$7&gt;=$F25,BF$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="BG25:BL30" ca="1" si="16">IF(AND($C25="Goal",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$7&gt;=$F25,BG$7&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BH25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$7&gt;=$F25,BH$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$7&gt;=$F25,BI$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$7&gt;=$F25,BJ$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$7&gt;=$F25,BK$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL25" s="29" t="str">
-        <f ca="1">IF(AND($C25="Goal",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$7&gt;=$F25,BL$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM25" s="21"/>
@@ -7653,235 +7652,235 @@
         <v>0</v>
       </c>
       <c r="F26" s="69">
-        <f ca="1">F12+15</f>
-        <v>44518</v>
+        <f>F12+15</f>
+        <v>44469</v>
       </c>
       <c r="G26" s="70">
         <v>4</v>
       </c>
       <c r="H26" s="103"/>
       <c r="I26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$7&gt;=$F26,I$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$7&gt;=$F26,J$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$7&gt;=$F26,K$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$7&gt;=$F26,L$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$7&gt;=$F26,M$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$7&gt;=$F26,N$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$7&gt;=$F26,O$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$7&gt;=$F26,P$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$7&gt;=$F26,Q$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$7&gt;=$F26,R$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$7&gt;=$F26,S$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$7&gt;=$F26,T$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$7&gt;=$F26,U$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$7&gt;=$F26,V$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$7&gt;=$F26,W$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$7&gt;=$F26,X$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$7&gt;=$F26,Y$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$7&gt;=$F26,Z$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$7&gt;=$F26,AA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$7&gt;=$F26,AB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$7&gt;=$F26,AC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$7&gt;=$F26,AD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$7&gt;=$F26,AE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$7&gt;=$F26,AF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$7&gt;=$F26,AG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$7&gt;=$F26,AH$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$7&gt;=$F26,AI$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$7&gt;=$F26,AJ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$7&gt;=$F26,AK$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$7&gt;=$F26,AL$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$7&gt;=$F26,AM$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$7&gt;=$F26,AN$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$7&gt;=$F26,AO$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$7&gt;=$F26,AP$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$7&gt;=$F26,AQ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$7&gt;=$F26,AR$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$7&gt;=$F26,AS$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$7&gt;=$F26,AT$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$7&gt;=$F26,AU$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$7&gt;=$F26,AV$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$7&gt;=$F26,AW$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$7&gt;=$F26,AX$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$7&gt;=$F26,AY$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$7&gt;=$F26,AZ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$7&gt;=$F26,BA$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$7&gt;=$F26,BB$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$7&gt;=$F26,BC$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$7&gt;=$F26,BD$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$7&gt;=$F26,BE$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$7&gt;=$F26,BF$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$7&gt;=$F26,BG$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$7&gt;=$F26,BH$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$7&gt;=$F26,BI$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$7&gt;=$F26,BJ$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$7&gt;=$F26,BK$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL26" s="29" t="str">
-        <f ca="1">IF(AND($C26="Goal",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$7&gt;=$F26,BL$7&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM26" s="21"/>
@@ -7899,235 +7898,235 @@
         <v>0</v>
       </c>
       <c r="F27" s="69">
-        <f ca="1">F26+3</f>
-        <v>44521</v>
+        <f>F26+3</f>
+        <v>44472</v>
       </c>
       <c r="G27" s="70">
         <v>14</v>
       </c>
       <c r="H27" s="103"/>
       <c r="I27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$7&gt;=$F27,J$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$7&gt;=$F27,K$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$7&gt;=$F27,L$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$7&gt;=$F27,M$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$7&gt;=$F27,N$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$7&gt;=$F27,O$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$7&gt;=$F27,P$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$7&gt;=$F27,Q$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$7&gt;=$F27,R$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$7&gt;=$F27,S$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$7&gt;=$F27,T$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$7&gt;=$F27,U$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$7&gt;=$F27,V$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$7&gt;=$F27,W$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$7&gt;=$F27,X$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$7&gt;=$F27,Y$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$7&gt;=$F27,Z$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$7&gt;=$F27,AA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$7&gt;=$F27,AB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$7&gt;=$F27,AC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$7&gt;=$F27,AD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$7&gt;=$F27,AE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$7&gt;=$F27,AF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$7&gt;=$F27,AG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$7&gt;=$F27,AH$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$7&gt;=$F27,AI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$7&gt;=$F27,AJ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$7&gt;=$F27,AK$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$7&gt;=$F27,AL$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$7&gt;=$F27,AM$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$7&gt;=$F27,AN$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$7&gt;=$F27,AO$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$7&gt;=$F27,AP$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$7&gt;=$F27,AQ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$7&gt;=$F27,AR$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$7&gt;=$F27,AS$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$7&gt;=$F27,AT$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$7&gt;=$F27,AU$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$7&gt;=$F27,AV$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$7&gt;=$F27,AW$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$7&gt;=$F27,AX$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$7&gt;=$F27,AY$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$7&gt;=$F27,AZ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$7&gt;=$F27,BA$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$7&gt;=$F27,BB$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$7&gt;=$F27,BC$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$7&gt;=$F27,BD$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$7&gt;=$F27,BE$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$7&gt;=$F27,BF$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$7&gt;=$F27,BG$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$7&gt;=$F27,BH$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$7&gt;=$F27,BI$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$7&gt;=$F27,BJ$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$7&gt;=$F27,BK$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL27" s="29" t="str">
-        <f ca="1">IF(AND($C27="Goal",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$7&gt;=$F27,BL$7&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM27" s="21"/>
@@ -8145,235 +8144,235 @@
         <v>0</v>
       </c>
       <c r="F28" s="69">
-        <f ca="1">F27+15</f>
-        <v>44536</v>
+        <f>F27+15</f>
+        <v>44487</v>
       </c>
       <c r="G28" s="70">
         <v>6</v>
       </c>
       <c r="H28" s="103"/>
       <c r="I28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$7&gt;=$F28,I$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$7&gt;=$F28,J$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$7&gt;=$F28,K$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$7&gt;=$F28,L$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$7&gt;=$F28,M$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$7&gt;=$F28,N$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$7&gt;=$F28,O$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$7&gt;=$F28,P$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$7&gt;=$F28,Q$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$7&gt;=$F28,R$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$7&gt;=$F28,S$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$7&gt;=$F28,T$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$7&gt;=$F28,U$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$7&gt;=$F28,V$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$7&gt;=$F28,W$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$7&gt;=$F28,X$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$7&gt;=$F28,Y$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$7&gt;=$F28,Z$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$7&gt;=$F28,AA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$7&gt;=$F28,AB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$7&gt;=$F28,AC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$7&gt;=$F28,AD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$7&gt;=$F28,AE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$7&gt;=$F28,AF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$7&gt;=$F28,AG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$7&gt;=$F28,AH$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$7&gt;=$F28,AI$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$7&gt;=$F28,AJ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$7&gt;=$F28,AK$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$7&gt;=$F28,AL$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$7&gt;=$F28,AM$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$7&gt;=$F28,AN$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$7&gt;=$F28,AO$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$7&gt;=$F28,AP$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$7&gt;=$F28,AQ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$7&gt;=$F28,AR$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$7&gt;=$F28,AS$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$7&gt;=$F28,AT$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$7&gt;=$F28,AU$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$7&gt;=$F28,AV$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$7&gt;=$F28,AW$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$7&gt;=$F28,AX$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$7&gt;=$F28,AY$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$7&gt;=$F28,AZ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$7&gt;=$F28,BA$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$7&gt;=$F28,BB$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$7&gt;=$F28,BC$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$7&gt;=$F28,BD$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$7&gt;=$F28,BE$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$7&gt;=$F28,BF$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$7&gt;=$F28,BG$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$7&gt;=$F28,BH$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$7&gt;=$F28,BI$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$7&gt;=$F28,BJ$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$7&gt;=$F28,BK$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL28" s="29" t="str">
-        <f ca="1">IF(AND($C28="Goal",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$7&gt;=$F28,BL$7&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM28" s="21"/>
@@ -8391,235 +8390,235 @@
         <v>0</v>
       </c>
       <c r="F29" s="69">
-        <f ca="1">F22+22</f>
-        <v>44537</v>
+        <f>F22+22</f>
+        <v>44488</v>
       </c>
       <c r="G29" s="70">
         <v>3</v>
       </c>
       <c r="H29" s="103"/>
       <c r="I29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$7&gt;=$F29,J$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$7&gt;=$F29,K$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$7&gt;=$F29,L$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$7&gt;=$F29,M$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$7&gt;=$F29,N$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$7&gt;=$F29,O$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$7&gt;=$F29,P$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$7&gt;=$F29,Q$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$7&gt;=$F29,R$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$7&gt;=$F29,S$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$7&gt;=$F29,T$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$7&gt;=$F29,U$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$7&gt;=$F29,V$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$7&gt;=$F29,W$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$7&gt;=$F29,X$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$7&gt;=$F29,Y$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$7&gt;=$F29,Z$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$7&gt;=$F29,AA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$7&gt;=$F29,AB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$7&gt;=$F29,AC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$7&gt;=$F29,AD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$7&gt;=$F29,AE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$7&gt;=$F29,AF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$7&gt;=$F29,AG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$7&gt;=$F29,AH$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$7&gt;=$F29,AI$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$7&gt;=$F29,AJ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$7&gt;=$F29,AK$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$7&gt;=$F29,AL$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$7&gt;=$F29,AM$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$7&gt;=$F29,AN$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$7&gt;=$F29,AO$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$7&gt;=$F29,AP$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$7&gt;=$F29,AQ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$7&gt;=$F29,AR$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$7&gt;=$F29,AS$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$7&gt;=$F29,AT$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$7&gt;=$F29,AU$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$7&gt;=$F29,AV$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$7&gt;=$F29,AW$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$7&gt;=$F29,AX$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$7&gt;=$F29,AY$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$7&gt;=$F29,AZ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$7&gt;=$F29,BA$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$7&gt;=$F29,BB$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$7&gt;=$F29,BC$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$7&gt;=$F29,BD$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$7&gt;=$F29,BE$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$7&gt;=$F29,BF$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$7&gt;=$F29,BG$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$7&gt;=$F29,BH$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$7&gt;=$F29,BI$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$7&gt;=$F29,BJ$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$7&gt;=$F29,BK$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL29" s="29" t="str">
-        <f ca="1">IF(AND($C29="Goal",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$7&gt;=$F29,BL$7&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM29" s="21"/>
@@ -8637,235 +8636,235 @@
         <v>0</v>
       </c>
       <c r="F30" s="69">
-        <f ca="1">F16</f>
-        <v>44509</v>
+        <f>F16</f>
+        <v>44460</v>
       </c>
       <c r="G30" s="70">
         <v>19</v>
       </c>
       <c r="H30" s="103"/>
       <c r="I30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="J30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$7&gt;=$F30,J$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$7&gt;=$F30,K$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$7&gt;=$F30,L$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$7&gt;=$F30,M$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$7&gt;=$F30,N$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$7&gt;=$F30,O$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$7&gt;=$F30,P$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$7&gt;=$F30,Q$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$7&gt;=$F30,R$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$7&gt;=$F30,S$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$7&gt;=$F30,T$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$7&gt;=$F30,U$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="V30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$7&gt;=$F30,V$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="W30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$7&gt;=$F30,W$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="X30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$7&gt;=$F30,X$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Y30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$7&gt;=$F30,Y$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Z30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$7&gt;=$F30,Z$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AA30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$7&gt;=$F30,AA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AB30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$7&gt;=$F30,AB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AC30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$7&gt;=$F30,AC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$7&gt;=$F30,AD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$7&gt;=$F30,AE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$7&gt;=$F30,AF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$7&gt;=$F30,AG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$7&gt;=$F30,AH$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$7&gt;=$F30,AI$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$7&gt;=$F30,AJ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$7&gt;=$F30,AK$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$7&gt;=$F30,AL$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$7&gt;=$F30,AM$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$7&gt;=$F30,AN$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$7&gt;=$F30,AO$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$7&gt;=$F30,AP$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$7&gt;=$F30,AQ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$7&gt;=$F30,AR$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$7&gt;=$F30,AS$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$7&gt;=$F30,AT$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$7&gt;=$F30,AU$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$7&gt;=$F30,AV$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$7&gt;=$F30,AW$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$7&gt;=$F30,AX$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$7&gt;=$F30,AY$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AZ30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$7&gt;=$F30,AZ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BA30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$7&gt;=$F30,BA$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BB30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$7&gt;=$F30,BB$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BC30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$7&gt;=$F30,BC$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BD30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$7&gt;=$F30,BD$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BE30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$7&gt;=$F30,BE$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BF30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$7&gt;=$F30,BF$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="BG30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$7&gt;=$F30,BG$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$7&gt;=$F30,BH$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$7&gt;=$F30,BI$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$7&gt;=$F30,BJ$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$7&gt;=$F30,BK$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL30" s="29" t="str">
-        <f ca="1">IF(AND($C30="Goal",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$7&gt;=$F30,BL$7&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BM30" s="21"/>
@@ -8883,8 +8882,8 @@
         <v>0</v>
       </c>
       <c r="F31" s="69">
-        <f ca="1">F30+19</f>
-        <v>44528</v>
+        <f>F30+19</f>
+        <v>44479</v>
       </c>
       <c r="G31" s="70">
         <v>2</v>
@@ -8960,227 +8959,227 @@
       <c r="G32" s="70"/>
       <c r="H32" s="103"/>
       <c r="I32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="I32:R37" ca="1" si="17">IF(AND($C32="Goal",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="J32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$7&gt;=$F32,J$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$7&gt;=$F32,K$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$7&gt;=$F32,L$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$7&gt;=$F32,M$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$7&gt;=$F32,N$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$7&gt;=$F32,O$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$7&gt;=$F32,P$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$7&gt;=$F32,Q$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$7&gt;=$F32,R$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="S32:AB37" ca="1" si="18">IF(AND($C32="Goal",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$7&gt;=$F32,S$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="T32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$7&gt;=$F32,T$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$7&gt;=$F32,U$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$7&gt;=$F32,V$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$7&gt;=$F32,W$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$7&gt;=$F32,X$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$7&gt;=$F32,Y$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$7&gt;=$F32,Z$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$7&gt;=$F32,AA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$7&gt;=$F32,AB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AC32:AL37" ca="1" si="19">IF(AND($C32="Goal",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$7&gt;=$F32,AC$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AD32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$7&gt;=$F32,AD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$7&gt;=$F32,AE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$7&gt;=$F32,AF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$7&gt;=$F32,AG$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$7&gt;=$F32,AH$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$7&gt;=$F32,AI$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$7&gt;=$F32,AJ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$7&gt;=$F32,AK$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$7&gt;=$F32,AL$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AM32:AV37" ca="1" si="20">IF(AND($C32="Goal",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$7&gt;=$F32,AM$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AN32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$7&gt;=$F32,AN$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$7&gt;=$F32,AO$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$7&gt;=$F32,AP$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$7&gt;=$F32,AQ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$7&gt;=$F32,AR$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$7&gt;=$F32,AS$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$7&gt;=$F32,AT$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$7&gt;=$F32,AU$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$7&gt;=$F32,AV$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AW32:BF37" ca="1" si="21">IF(AND($C32="Goal",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$7&gt;=$F32,AW$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AX32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$7&gt;=$F32,AX$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$7&gt;=$F32,AY$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$7&gt;=$F32,AZ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$7&gt;=$F32,BA$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$7&gt;=$F32,BB$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$7&gt;=$F32,BC$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$7&gt;=$F32,BD$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$7&gt;=$F32,BE$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$7&gt;=$F32,BF$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="BG32:BL37" ca="1" si="22">IF(AND($C32="Goal",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$7&gt;=$F32,BG$7&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BH32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$7&gt;=$F32,BH$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$7&gt;=$F32,BI$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$7&gt;=$F32,BJ$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$7&gt;=$F32,BK$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL32" s="29" t="str">
-        <f ca="1">IF(AND($C32="Goal",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$7&gt;=$F32,BL$7&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BM32" s="21"/>
@@ -9198,235 +9197,235 @@
         <v>0</v>
       </c>
       <c r="F33" s="69">
-        <f ca="1">F29+3</f>
-        <v>44540</v>
+        <f>F29+3</f>
+        <v>44491</v>
       </c>
       <c r="G33" s="70">
         <v>15</v>
       </c>
       <c r="H33" s="103"/>
       <c r="I33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$7&gt;=$F33,J$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$7&gt;=$F33,K$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$7&gt;=$F33,L$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$7&gt;=$F33,M$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$7&gt;=$F33,N$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$7&gt;=$F33,O$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$7&gt;=$F33,P$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$7&gt;=$F33,Q$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$7&gt;=$F33,R$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$7&gt;=$F33,S$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$7&gt;=$F33,T$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$7&gt;=$F33,U$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$7&gt;=$F33,V$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$7&gt;=$F33,W$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$7&gt;=$F33,X$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$7&gt;=$F33,Y$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$7&gt;=$F33,Z$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$7&gt;=$F33,AA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$7&gt;=$F33,AB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$7&gt;=$F33,AC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$7&gt;=$F33,AD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$7&gt;=$F33,AE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$7&gt;=$F33,AF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$7&gt;=$F33,AG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$7&gt;=$F33,AH$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$7&gt;=$F33,AI$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$7&gt;=$F33,AJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$7&gt;=$F33,AK$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$7&gt;=$F33,AL$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$7&gt;=$F33,AM$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$7&gt;=$F33,AN$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$7&gt;=$F33,AO$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$7&gt;=$F33,AP$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$7&gt;=$F33,AQ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$7&gt;=$F33,AR$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$7&gt;=$F33,AS$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$7&gt;=$F33,AT$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$7&gt;=$F33,AU$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$7&gt;=$F33,AV$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$7&gt;=$F33,AW$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$7&gt;=$F33,AX$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$7&gt;=$F33,AY$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$7&gt;=$F33,AZ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$7&gt;=$F33,BA$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$7&gt;=$F33,BB$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$7&gt;=$F33,BC$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$7&gt;=$F33,BD$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$7&gt;=$F33,BE$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$7&gt;=$F33,BF$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$7&gt;=$F33,BG$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$7&gt;=$F33,BH$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$7&gt;=$F33,BI$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$7&gt;=$F33,BJ$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$7&gt;=$F33,BK$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL33" s="29" t="str">
-        <f ca="1">IF(AND($C33="Goal",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$7&gt;=$F33,BL$7&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BM33" s="21"/>
@@ -9444,235 +9443,235 @@
         <v>0</v>
       </c>
       <c r="F34" s="69">
-        <f ca="1">F33+14</f>
-        <v>44554</v>
+        <f>F33+14</f>
+        <v>44505</v>
       </c>
       <c r="G34" s="70">
         <v>5</v>
       </c>
       <c r="H34" s="103"/>
       <c r="I34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",J$7&gt;=$F34,J$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",K$7&gt;=$F34,K$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",L$7&gt;=$F34,L$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",M$7&gt;=$F34,M$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",N$7&gt;=$F34,N$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",O$7&gt;=$F34,O$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",P$7&gt;=$F34,P$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Q$7&gt;=$F34,Q$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",R$7&gt;=$F34,R$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",S$7&gt;=$F34,S$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",T$7&gt;=$F34,T$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",U$7&gt;=$F34,U$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",V$7&gt;=$F34,V$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",W$7&gt;=$F34,W$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",X$7&gt;=$F34,X$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Y$7&gt;=$F34,Y$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Z$7&gt;=$F34,Z$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AA$7&gt;=$F34,AA$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AB$7&gt;=$F34,AB$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AC$7&gt;=$F34,AC$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AD$7&gt;=$F34,AD$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AE$7&gt;=$F34,AE$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AF$7&gt;=$F34,AF$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AG$7&gt;=$F34,AG$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AH$7&gt;=$F34,AH$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AH$7&gt;=$F34,AH$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AI$7&gt;=$F34,AI$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AI$7&gt;=$F34,AI$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AJ$7&gt;=$F34,AJ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AJ$7&gt;=$F34,AJ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AK$7&gt;=$F34,AK$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AK$7&gt;=$F34,AK$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AL$7&gt;=$F34,AL$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AL$7&gt;=$F34,AL$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AM$7&gt;=$F34,AM$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AM$7&gt;=$F34,AM$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AN$7&gt;=$F34,AN$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AN$7&gt;=$F34,AN$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AO$7&gt;=$F34,AO$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AO$7&gt;=$F34,AO$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AP$7&gt;=$F34,AP$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AP$7&gt;=$F34,AP$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AQ$7&gt;=$F34,AQ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AQ$7&gt;=$F34,AQ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AR$7&gt;=$F34,AR$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AR$7&gt;=$F34,AR$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AS$7&gt;=$F34,AS$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AS$7&gt;=$F34,AS$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AT$7&gt;=$F34,AT$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AT$7&gt;=$F34,AT$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AU$7&gt;=$F34,AU$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AU$7&gt;=$F34,AU$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AV$7&gt;=$F34,AV$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AV$7&gt;=$F34,AV$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AW$7&gt;=$F34,AW$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AW$7&gt;=$F34,AW$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AX$7&gt;=$F34,AX$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AX$7&gt;=$F34,AX$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AY$7&gt;=$F34,AY$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AY$7&gt;=$F34,AY$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",AZ$7&gt;=$F34,AZ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AZ$7&gt;=$F34,AZ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BA$7&gt;=$F34,BA$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BA$7&gt;=$F34,BA$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BB$7&gt;=$F34,BB$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BB$7&gt;=$F34,BB$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BC$7&gt;=$F34,BC$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BC$7&gt;=$F34,BC$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BD$7&gt;=$F34,BD$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BD$7&gt;=$F34,BD$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BE$7&gt;=$F34,BE$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BE$7&gt;=$F34,BE$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BF$7&gt;=$F34,BF$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BF$7&gt;=$F34,BF$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BG$7&gt;=$F34,BG$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BG$7&gt;=$F34,BG$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BH$7&gt;=$F34,BH$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BH$7&gt;=$F34,BH$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BI$7&gt;=$F34,BI$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BI$7&gt;=$F34,BI$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BJ$7&gt;=$F34,BJ$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BJ$7&gt;=$F34,BJ$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BK$7&gt;=$F34,BK$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BK$7&gt;=$F34,BK$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL34" s="29" t="str">
-        <f ca="1">IF(AND($C34="Goal",BL$7&gt;=$F34,BL$7&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BL$7&gt;=$F34,BL$7&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BM34" s="21"/>
@@ -9690,235 +9689,235 @@
         <v>0</v>
       </c>
       <c r="F35" s="69">
-        <f ca="1">F34+5</f>
-        <v>44559</v>
+        <f>F34+5</f>
+        <v>44510</v>
       </c>
       <c r="G35" s="70">
         <v>2</v>
       </c>
       <c r="H35" s="103"/>
       <c r="I35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$7&gt;=$F35,I$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$7&gt;=$F35,J$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$7&gt;=$F35,K$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$7&gt;=$F35,L$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$7&gt;=$F35,M$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$7&gt;=$F35,N$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$7&gt;=$F35,O$7&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="P35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$7&gt;=$F35,P$7&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$7&gt;=$F35,Q$7&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="P35" s="29">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="29">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
       </c>
       <c r="R35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$7&gt;=$F35,R$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$7&gt;=$F35,S$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$7&gt;=$F35,T$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$7&gt;=$F35,U$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$7&gt;=$F35,V$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$7&gt;=$F35,W$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$7&gt;=$F35,X$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$7&gt;=$F35,Y$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$7&gt;=$F35,Z$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$7&gt;=$F35,AA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$7&gt;=$F35,AB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$7&gt;=$F35,AC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$7&gt;=$F35,AD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$7&gt;=$F35,AE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$7&gt;=$F35,AF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$7&gt;=$F35,AG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$7&gt;=$F35,AH$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$7&gt;=$F35,AI$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$7&gt;=$F35,AJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$7&gt;=$F35,AK$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$7&gt;=$F35,AL$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$7&gt;=$F35,AM$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$7&gt;=$F35,AN$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$7&gt;=$F35,AO$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$7&gt;=$F35,AP$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$7&gt;=$F35,AQ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$7&gt;=$F35,AR$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$7&gt;=$F35,AS$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$7&gt;=$F35,AT$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$7&gt;=$F35,AU$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$7&gt;=$F35,AV$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$7&gt;=$F35,AW$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$7&gt;=$F35,AX$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$7&gt;=$F35,AY$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$7&gt;=$F35,AZ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$7&gt;=$F35,BA$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$7&gt;=$F35,BB$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$7&gt;=$F35,BC$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$7&gt;=$F35,BD$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$7&gt;=$F35,BE$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$7&gt;=$F35,BF$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$7&gt;=$F35,BG$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$7&gt;=$F35,BH$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$7&gt;=$F35,BI$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$7&gt;=$F35,BJ$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$7&gt;=$F35,BK$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL35" s="29" t="str">
-        <f ca="1">IF(AND($C35="Goal",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$7&gt;=$F35,BL$7&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BM35" s="21"/>
@@ -9936,235 +9935,235 @@
         <v>0</v>
       </c>
       <c r="F36" s="69">
-        <f ca="1">F35 + 2</f>
-        <v>44561</v>
+        <f>F35 + 2</f>
+        <v>44512</v>
       </c>
       <c r="G36" s="70">
         <v>2</v>
       </c>
       <c r="H36" s="103"/>
       <c r="I36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",J$7&gt;=$F36,J$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",J$7&gt;=$F36,J$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",K$7&gt;=$F36,K$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",K$7&gt;=$F36,K$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",L$7&gt;=$F36,L$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",L$7&gt;=$F36,L$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",M$7&gt;=$F36,M$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",M$7&gt;=$F36,M$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",N$7&gt;=$F36,N$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",N$7&gt;=$F36,N$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",O$7&gt;=$F36,O$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",O$7&gt;=$F36,O$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",P$7&gt;=$F36,P$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",P$7&gt;=$F36,P$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",Q$7&gt;=$F36,Q$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Q$7&gt;=$F36,Q$7&lt;=$F36+$G36-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="R36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",R$7&gt;=$F36,R$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",R$7&gt;=$F36,R$7&lt;=$F36+$G36-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="S36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",S$7&gt;=$F36,S$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",S$7&gt;=$F36,S$7&lt;=$F36+$G36-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="17"/>
+        <v/>
+      </c>
+      <c r="R36" s="29">
+        <f t="shared" ca="1" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="S36" s="29">
+        <f t="shared" ca="1" si="18"/>
+        <v>2</v>
       </c>
       <c r="T36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",T$7&gt;=$F36,T$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",T$7&gt;=$F36,T$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",U$7&gt;=$F36,U$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",U$7&gt;=$F36,U$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",V$7&gt;=$F36,V$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",V$7&gt;=$F36,V$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",W$7&gt;=$F36,W$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",W$7&gt;=$F36,W$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",X$7&gt;=$F36,X$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",X$7&gt;=$F36,X$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",Y$7&gt;=$F36,Y$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Y$7&gt;=$F36,Y$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",Z$7&gt;=$F36,Z$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",Z$7&gt;=$F36,Z$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AA$7&gt;=$F36,AA$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AA$7&gt;=$F36,AA$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AB$7&gt;=$F36,AB$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AB$7&gt;=$F36,AB$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AC$7&gt;=$F36,AC$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AC$7&gt;=$F36,AC$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AD$7&gt;=$F36,AD$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AD$7&gt;=$F36,AD$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AE$7&gt;=$F36,AE$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AE$7&gt;=$F36,AE$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AF$7&gt;=$F36,AF$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AF$7&gt;=$F36,AF$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AG$7&gt;=$F36,AG$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AG$7&gt;=$F36,AG$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AH$7&gt;=$F36,AH$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AH$7&gt;=$F36,AH$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AI$7&gt;=$F36,AI$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AI$7&gt;=$F36,AI$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AJ$7&gt;=$F36,AJ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AJ$7&gt;=$F36,AJ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AK$7&gt;=$F36,AK$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AK$7&gt;=$F36,AK$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AL$7&gt;=$F36,AL$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AL$7&gt;=$F36,AL$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AM$7&gt;=$F36,AM$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AM$7&gt;=$F36,AM$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AN$7&gt;=$F36,AN$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AN$7&gt;=$F36,AN$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AO$7&gt;=$F36,AO$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AO$7&gt;=$F36,AO$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AP$7&gt;=$F36,AP$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AP$7&gt;=$F36,AP$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AQ$7&gt;=$F36,AQ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AQ$7&gt;=$F36,AQ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AR$7&gt;=$F36,AR$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AR$7&gt;=$F36,AR$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AS$7&gt;=$F36,AS$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AS$7&gt;=$F36,AS$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AT$7&gt;=$F36,AT$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AT$7&gt;=$F36,AT$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AU$7&gt;=$F36,AU$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AU$7&gt;=$F36,AU$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AV$7&gt;=$F36,AV$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AV$7&gt;=$F36,AV$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AW$7&gt;=$F36,AW$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AW$7&gt;=$F36,AW$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AX$7&gt;=$F36,AX$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AX$7&gt;=$F36,AX$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AY$7&gt;=$F36,AY$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AY$7&gt;=$F36,AY$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",AZ$7&gt;=$F36,AZ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",AZ$7&gt;=$F36,AZ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BA$7&gt;=$F36,BA$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BA$7&gt;=$F36,BA$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BB$7&gt;=$F36,BB$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BB$7&gt;=$F36,BB$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BC$7&gt;=$F36,BC$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BC$7&gt;=$F36,BC$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BD$7&gt;=$F36,BD$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BD$7&gt;=$F36,BD$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BE$7&gt;=$F36,BE$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BE$7&gt;=$F36,BE$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BF$7&gt;=$F36,BF$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BF$7&gt;=$F36,BF$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BG$7&gt;=$F36,BG$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BG$7&gt;=$F36,BG$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BH$7&gt;=$F36,BH$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BH$7&gt;=$F36,BH$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BI$7&gt;=$F36,BI$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BI$7&gt;=$F36,BI$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BJ$7&gt;=$F36,BJ$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BJ$7&gt;=$F36,BJ$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BK$7&gt;=$F36,BK$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BK$7&gt;=$F36,BK$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL36" s="29" t="str">
-        <f ca="1">IF(AND($C36="Goal",BL$7&gt;=$F36,BL$7&lt;=$F36+$G36-1),2,IF(AND($C36="Milestone",BL$7&gt;=$F36,BL$7&lt;=$F36+$G36-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BM36" s="21"/>
@@ -10181,227 +10180,227 @@
       <c r="G37" s="70"/>
       <c r="H37" s="103"/>
       <c r="I37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",I$7&gt;=$F37,I$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",I$7&gt;=$F37,I$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="J37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",J$7&gt;=$F37,J$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",J$7&gt;=$F37,J$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",K$7&gt;=$F37,K$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",K$7&gt;=$F37,K$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",L$7&gt;=$F37,L$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",L$7&gt;=$F37,L$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",M$7&gt;=$F37,M$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",M$7&gt;=$F37,M$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",N$7&gt;=$F37,N$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",N$7&gt;=$F37,N$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",O$7&gt;=$F37,O$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",O$7&gt;=$F37,O$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",P$7&gt;=$F37,P$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",P$7&gt;=$F37,P$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",Q$7&gt;=$F37,Q$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Q$7&gt;=$F37,Q$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",R$7&gt;=$F37,R$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",R$7&gt;=$F37,R$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",S$7&gt;=$F37,S$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",S$7&gt;=$F37,S$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",T$7&gt;=$F37,T$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",T$7&gt;=$F37,T$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",U$7&gt;=$F37,U$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",U$7&gt;=$F37,U$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",V$7&gt;=$F37,V$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",V$7&gt;=$F37,V$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",W$7&gt;=$F37,W$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",W$7&gt;=$F37,W$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",X$7&gt;=$F37,X$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",X$7&gt;=$F37,X$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",Y$7&gt;=$F37,Y$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Y$7&gt;=$F37,Y$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",Z$7&gt;=$F37,Z$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",Z$7&gt;=$F37,Z$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AA$7&gt;=$F37,AA$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AA$7&gt;=$F37,AA$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AB$7&gt;=$F37,AB$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AB$7&gt;=$F37,AB$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AC$7&gt;=$F37,AC$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AC$7&gt;=$F37,AC$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AD$7&gt;=$F37,AD$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AD$7&gt;=$F37,AD$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AE$7&gt;=$F37,AE$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AE$7&gt;=$F37,AE$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AF$7&gt;=$F37,AF$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AF$7&gt;=$F37,AF$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AG$7&gt;=$F37,AG$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AG$7&gt;=$F37,AG$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AH$7&gt;=$F37,AH$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AH$7&gt;=$F37,AH$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AI$7&gt;=$F37,AI$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AI$7&gt;=$F37,AI$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AJ$7&gt;=$F37,AJ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AJ$7&gt;=$F37,AJ$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AK$7&gt;=$F37,AK$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AK$7&gt;=$F37,AK$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AL$7&gt;=$F37,AL$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AL$7&gt;=$F37,AL$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AM$7&gt;=$F37,AM$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AM$7&gt;=$F37,AM$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AN$7&gt;=$F37,AN$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AN$7&gt;=$F37,AN$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AO$7&gt;=$F37,AO$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AO$7&gt;=$F37,AO$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AP37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AP$7&gt;=$F37,AP$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AP$7&gt;=$F37,AP$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AQ$7&gt;=$F37,AQ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AQ$7&gt;=$F37,AQ$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AR$7&gt;=$F37,AR$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AR$7&gt;=$F37,AR$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AS$7&gt;=$F37,AS$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AS$7&gt;=$F37,AS$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AT$7&gt;=$F37,AT$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AT$7&gt;=$F37,AT$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AU$7&gt;=$F37,AU$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AU$7&gt;=$F37,AU$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AV$7&gt;=$F37,AV$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AV$7&gt;=$F37,AV$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AW$7&gt;=$F37,AW$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AW$7&gt;=$F37,AW$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AX$7&gt;=$F37,AX$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AX$7&gt;=$F37,AX$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AY$7&gt;=$F37,AY$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AY$7&gt;=$F37,AY$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",AZ$7&gt;=$F37,AZ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",AZ$7&gt;=$F37,AZ$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BA$7&gt;=$F37,BA$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BA$7&gt;=$F37,BA$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BB$7&gt;=$F37,BB$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BB$7&gt;=$F37,BB$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BC$7&gt;=$F37,BC$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BC$7&gt;=$F37,BC$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BD$7&gt;=$F37,BD$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BD$7&gt;=$F37,BD$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BE$7&gt;=$F37,BE$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BE$7&gt;=$F37,BE$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BF$7&gt;=$F37,BF$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BF$7&gt;=$F37,BF$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BG$7&gt;=$F37,BG$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BG$7&gt;=$F37,BG$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BH$7&gt;=$F37,BH$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BH$7&gt;=$F37,BH$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BI$7&gt;=$F37,BI$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BI$7&gt;=$F37,BI$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BJ$7&gt;=$F37,BJ$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BJ$7&gt;=$F37,BJ$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BK$7&gt;=$F37,BK$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BK$7&gt;=$F37,BK$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL37" s="29" t="str">
-        <f ca="1">IF(AND($C37="Goal",BL$7&gt;=$F37,BL$7&lt;=$F37+$G37-1),2,IF(AND($C37="Milestone",BL$7&gt;=$F37,BL$7&lt;=$F37+$G37-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BM37" s="21"/>
@@ -10419,8 +10418,8 @@
         <v>0</v>
       </c>
       <c r="F38" s="69">
-        <f ca="1">F36 +2</f>
-        <v>44563</v>
+        <f>F36 +2</f>
+        <v>44514</v>
       </c>
       <c r="G38" s="70">
         <v>2</v>
@@ -10497,8 +10496,8 @@
         <v>0</v>
       </c>
       <c r="F39" s="69">
-        <f ca="1">F38 +2</f>
-        <v>44565</v>
+        <f>F38 +2</f>
+        <v>44516</v>
       </c>
       <c r="G39" s="70">
         <v>2</v>
@@ -10575,8 +10574,8 @@
         <v>0</v>
       </c>
       <c r="F40" s="69">
-        <f ca="1" xml:space="preserve"> F39 +2</f>
-        <v>44567</v>
+        <f xml:space="preserve"> F39 +2</f>
+        <v>44518</v>
       </c>
       <c r="G40" s="70">
         <v>2</v>
@@ -10653,8 +10652,8 @@
         <v>0</v>
       </c>
       <c r="F41" s="69">
-        <f ca="1">F40+2</f>
-        <v>44569</v>
+        <f>F40+2</f>
+        <v>44520</v>
       </c>
       <c r="G41" s="70">
         <v>2</v>
@@ -10731,235 +10730,235 @@
         <v>0</v>
       </c>
       <c r="F42" s="69">
-        <f ca="1">F41+2</f>
-        <v>44571</v>
+        <f>F41+2</f>
+        <v>44522</v>
       </c>
       <c r="G42" s="70">
         <v>2</v>
       </c>
       <c r="H42" s="103"/>
       <c r="I42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",I$7&gt;=$F42,I$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",I$7&gt;=$F42,I$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ref="I42:AN42" ca="1" si="23">IF(AND($C42="Goal",I$7&gt;=$F42,I$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",I$7&gt;=$F42,I$7&lt;=$F42+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="J42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",J$7&gt;=$F42,J$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",J$7&gt;=$F42,J$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="K42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",K$7&gt;=$F42,K$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",K$7&gt;=$F42,K$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="L42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",L$7&gt;=$F42,L$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",L$7&gt;=$F42,L$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="M42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",M$7&gt;=$F42,M$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",M$7&gt;=$F42,M$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="N42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",N$7&gt;=$F42,N$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",N$7&gt;=$F42,N$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="O42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",O$7&gt;=$F42,O$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",O$7&gt;=$F42,O$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="P42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",P$7&gt;=$F42,P$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",P$7&gt;=$F42,P$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Q42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",Q$7&gt;=$F42,Q$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",Q$7&gt;=$F42,Q$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="R42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",R$7&gt;=$F42,R$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",R$7&gt;=$F42,R$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",S$7&gt;=$F42,S$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",S$7&gt;=$F42,S$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="T42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",T$7&gt;=$F42,T$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",T$7&gt;=$F42,T$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="U42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",U$7&gt;=$F42,U$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",U$7&gt;=$F42,U$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="V42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",V$7&gt;=$F42,V$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",V$7&gt;=$F42,V$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="W42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",W$7&gt;=$F42,W$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",W$7&gt;=$F42,W$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="X42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",X$7&gt;=$F42,X$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",X$7&gt;=$F42,X$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Y42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",Y$7&gt;=$F42,Y$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",Y$7&gt;=$F42,Y$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",Z$7&gt;=$F42,Z$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",Z$7&gt;=$F42,Z$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AA$7&gt;=$F42,AA$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AA$7&gt;=$F42,AA$7&lt;=$F42+$G42-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AB$7&gt;=$F42,AB$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AB$7&gt;=$F42,AB$7&lt;=$F42+$G42-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AC$7&gt;=$F42,AC$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AC$7&gt;=$F42,AC$7&lt;=$F42+$G42-1),1,""))</f>
-        <v/>
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="AB42" s="29">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AC42" s="29">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
       </c>
       <c r="AD42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AD$7&gt;=$F42,AD$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AD$7&gt;=$F42,AD$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AE42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AE$7&gt;=$F42,AE$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AE$7&gt;=$F42,AE$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AF42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AF$7&gt;=$F42,AF$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AF$7&gt;=$F42,AF$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AG42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AG$7&gt;=$F42,AG$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AG$7&gt;=$F42,AG$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AH42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AH$7&gt;=$F42,AH$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AH$7&gt;=$F42,AH$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AI42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AI$7&gt;=$F42,AI$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AI$7&gt;=$F42,AI$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AJ42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AJ$7&gt;=$F42,AJ$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AJ$7&gt;=$F42,AJ$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AK42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AK$7&gt;=$F42,AK$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AK$7&gt;=$F42,AK$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AL42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AL$7&gt;=$F42,AL$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AL$7&gt;=$F42,AL$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AM42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AM$7&gt;=$F42,AM$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AM$7&gt;=$F42,AM$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AN42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AN$7&gt;=$F42,AN$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AN$7&gt;=$F42,AN$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AO42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AO$7&gt;=$F42,AO$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AO$7&gt;=$F42,AO$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ref="AO42:BL42" ca="1" si="24">IF(AND($C42="Goal",AO$7&gt;=$F42,AO$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AO$7&gt;=$F42,AO$7&lt;=$F42+$G42-1),1,""))</f>
         <v/>
       </c>
       <c r="AP42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AP$7&gt;=$F42,AP$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AP$7&gt;=$F42,AP$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AQ42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AQ$7&gt;=$F42,AQ$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AQ$7&gt;=$F42,AQ$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AR42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AR$7&gt;=$F42,AR$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AR$7&gt;=$F42,AR$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AS42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AS$7&gt;=$F42,AS$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AS$7&gt;=$F42,AS$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AT42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AT$7&gt;=$F42,AT$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AT$7&gt;=$F42,AT$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AU42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AU$7&gt;=$F42,AU$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AU$7&gt;=$F42,AU$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AV42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AV$7&gt;=$F42,AV$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AV$7&gt;=$F42,AV$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AW42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AW$7&gt;=$F42,AW$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AW$7&gt;=$F42,AW$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AX42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AX$7&gt;=$F42,AX$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AX$7&gt;=$F42,AX$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AY42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AY$7&gt;=$F42,AY$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AY$7&gt;=$F42,AY$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AZ42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",AZ$7&gt;=$F42,AZ$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",AZ$7&gt;=$F42,AZ$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BA42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BA$7&gt;=$F42,BA$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BA$7&gt;=$F42,BA$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BB42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BB$7&gt;=$F42,BB$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BB$7&gt;=$F42,BB$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BC42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BC$7&gt;=$F42,BC$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BC$7&gt;=$F42,BC$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BD42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BD$7&gt;=$F42,BD$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BD$7&gt;=$F42,BD$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BE42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BE$7&gt;=$F42,BE$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BE$7&gt;=$F42,BE$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BF42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BF$7&gt;=$F42,BF$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BF$7&gt;=$F42,BF$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BG42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BG$7&gt;=$F42,BG$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BG$7&gt;=$F42,BG$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BH$7&gt;=$F42,BH$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BH$7&gt;=$F42,BH$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BI$7&gt;=$F42,BI$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BI$7&gt;=$F42,BI$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BJ$7&gt;=$F42,BJ$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BJ$7&gt;=$F42,BJ$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BK$7&gt;=$F42,BK$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BK$7&gt;=$F42,BK$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL42" s="29" t="str">
-        <f ca="1">IF(AND($C42="Goal",BL$7&gt;=$F42,BL$7&lt;=$F42+$G42-1),2,IF(AND($C42="Milestone",BL$7&gt;=$F42,BL$7&lt;=$F42+$G42-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BM42" s="106"/>
@@ -11064,56 +11063,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL43">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="55" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL42">
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="33" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11266,27 +11265,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -11413,40 +11412,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="32"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="148" t="s">
+      <c r="N4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="149" t="s">
+      <c r="S4" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="153"/>
+      <c r="AE4" s="153"/>
+      <c r="AF4" s="153"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -18426,56 +18425,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18628,27 +18627,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
       <c r="U2" s="115"/>
       <c r="V2" s="115"/>
       <c r="W2" s="115"/>
@@ -18775,40 +18774,40 @@
         <v>18</v>
       </c>
       <c r="H4" s="84"/>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
       <c r="M4" s="99"/>
-      <c r="N4" s="148" t="s">
+      <c r="N4" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
       <c r="R4" s="99"/>
-      <c r="S4" s="149" t="s">
+      <c r="S4" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
+      <c r="T4" s="152"/>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
       <c r="W4" s="99"/>
-      <c r="X4" s="144" t="s">
+      <c r="X4" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
       <c r="AB4" s="99"/>
-      <c r="AC4" s="145" t="s">
+      <c r="AC4" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="145"/>
-      <c r="AE4" s="145"/>
-      <c r="AF4" s="145"/>
+      <c r="AD4" s="153"/>
+      <c r="AE4" s="153"/>
+      <c r="AF4" s="153"/>
       <c r="AG4" s="99"/>
       <c r="AH4" s="99"/>
       <c r="AI4" s="99"/>
@@ -25788,56 +25787,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26240,6 +26239,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -26256,15 +26264,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26289,6 +26288,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26298,12 +26305,4 @@
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>